--- a/pred_ohlcv/54_21/2019-11-13 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 WET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2172611.252311515</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>649539.0891115151</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>778512.0618115151</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1035420.503311515</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2008258.221211515</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2098258.221211515</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2040689.429511515</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2060831.278511515</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-898772.4335442011</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-348037.937644201</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-21461528.48177531</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-9291272.142475311</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-9178851.95987531</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1387323.084811744</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1879359.141774816</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1816000.7559671</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-4171041.257710185</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4325394.042310185</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-4996180.928210185</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>13485806.25553392</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>13485806.25553392</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>30404549.79233392</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>30307643.21203392</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>53917444.74784341</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>54324747.33162301</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>55288049.30055294</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>55288049.30055294</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>55289831.09124054</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>55289831.09124054</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>54918733.83544054</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>54919244.88084054</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>54888462.43814054</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>54884194.11154054</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>54884194.11154054</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>54883994.11154054</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>54513993.16154054</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>54513993.16154054</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>54471029.97654054</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>54807803.87534053</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>54723127.40794053</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>54723127.40794053</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>54383127.40794053</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>54383127.40794053</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>54394497.65544053</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>54390795.16834053</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>54390795.16834053</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-13 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 WET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2172611.252311515</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>649539.0891115151</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>778512.0618115151</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1035420.503311515</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2008258.221211515</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2098258.221211515</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2040689.429511515</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3937221.719366414</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3365495.289299581</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3383786.297399581</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3457764.307699581</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>3086658.890499581</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2726901.488899581</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-810989.522653112</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-898772.4335442011</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-348037.937644201</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-21461528.48177531</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-9291272.142475311</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-9178851.95987531</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-3586703.465911744</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1172292.340111744</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1172292.340111744</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1387323.084811744</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1879359.141774816</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1816000.7559671</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1888898.200110186</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3326981.183110186</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-5414900.564610186</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-4996180.928210185</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>13485806.25553392</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>13485806.25553392</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>30404549.79233392</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>30307643.21203392</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>53917444.74784341</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>55288049.30055294</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>55288049.30055294</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>55289831.09124054</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>55289831.09124054</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>54918733.83544054</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>54888462.43814054</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>54884194.11154054</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>54883994.11154054</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>54513993.16154054</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>54513993.16154054</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>54471029.97654054</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>54811029.97654054</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>54811029.97654054</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>54704096.04984053</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>54704096.04984053</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
